--- a/Tables_K12.xlsx
+++ b/Tables_K12.xlsx
@@ -476,16 +476,16 @@
         <v>2.984178950600596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.978206946609772</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.984178950600694</v>
+        <v>2.984178950600683</v>
       </c>
       <c r="E2" t="n">
-        <v>2.96303585895925</v>
+        <v>2.963035858959238</v>
       </c>
       <c r="F2" t="n">
-        <v>2.964169462686804</v>
+        <v>2.964169462686811</v>
       </c>
       <c r="G2" t="n">
         <v>0.07287959495804987</v>
@@ -501,16 +501,16 @@
         <v>2.394064646527028e-08</v>
       </c>
       <c r="C3" t="n">
-        <v>1.119807241378723e-07</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.394064613220337e-08</v>
+        <v>2.394064618771452e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>7.095690707226154e-08</v>
+        <v>7.095690668368348e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>9.279255780425544e-09</v>
+        <v>9.279255835936695e-09</v>
       </c>
       <c r="G3" t="n">
         <v>1.225603979415624e-09</v>
@@ -526,16 +526,16 @@
         <v>0.3493186933591662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4120600501368309</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3493186933591769</v>
+        <v>0.3493186933591786</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3996704895699456</v>
+        <v>0.3996704895699362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4147052829405778</v>
+        <v>0.4147052829405814</v>
       </c>
       <c r="G4" t="n">
         <v>0.01081718341614391</v>
@@ -551,16 +551,16 @@
         <v>0.02032133781902503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02074864673119852</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02032133781902564</v>
+        <v>0.02032133781902556</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02036773169272156</v>
+        <v>0.02036773169272146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0207421695233515</v>
+        <v>0.02074216952335155</v>
       </c>
       <c r="G5" t="n">
         <v>0.0005315788865177863</v>
@@ -576,16 +576,16 @@
         <v>0.005512070853845544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005817021832284788</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005512070853845613</v>
+        <v>0.005512070853845766</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005549484227183182</v>
+        <v>0.00554948422718321</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005747233780043132</v>
+        <v>0.005747233780043146</v>
       </c>
       <c r="G6" t="n">
         <v>0.0001306211747286665</v>
@@ -601,16 +601,16 @@
         <v>0.01183654907441986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01143900502468428</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01183654907442036</v>
+        <v>0.01183654907442061</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01164785541346608</v>
+        <v>0.01164785541346586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01128732356069095</v>
+        <v>0.0112873235606909</v>
       </c>
       <c r="G7" t="n">
         <v>0.0002642930947540992</v>
@@ -626,16 +626,16 @@
         <v>0.02027683455534474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01942023962031979</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02027683455534587</v>
+        <v>0.02027683455534586</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0199383058725985</v>
+        <v>0.01993830587259837</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01933355497747313</v>
+        <v>0.01933355497747321</v>
       </c>
       <c r="G8" t="n">
         <v>0.0004674715231250022</v>
@@ -651,16 +651,16 @@
         <v>11.36354506103094</v>
       </c>
       <c r="C9" t="n">
-        <v>11.39650341230446</v>
+        <v>11.39650341230402</v>
       </c>
       <c r="D9" t="n">
-        <v>11.3635443869953</v>
+        <v>11.36354506103095</v>
       </c>
       <c r="E9" t="n">
-        <v>11.40413731727597</v>
+        <v>11.40413731982107</v>
       </c>
       <c r="F9" t="n">
-        <v>11.40826741230686</v>
+        <v>11.41162106933218</v>
       </c>
       <c r="G9" t="n">
         <v>11.12797483218476</v>
@@ -676,16 +676,16 @@
         <v>6.475642821968108e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>3.083191506547678e-07</v>
+        <v>3.083191512098793e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>5.6658529312692e-08</v>
+        <v>6.475642827519223e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>2.368255776485917e-07</v>
+        <v>2.367694729721315e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>9.885822493949092e-09</v>
+        <v>5.831248378607157e-08</v>
       </c>
       <c r="G10" t="n">
         <v>3.243319213197537e-08</v>
@@ -701,16 +701,16 @@
         <v>3.668098629593895</v>
       </c>
       <c r="C11" t="n">
-        <v>4.03402831095528</v>
+        <v>4.0340283109509</v>
       </c>
       <c r="D11" t="n">
-        <v>3.668098493703009</v>
+        <v>3.668098629593892</v>
       </c>
       <c r="E11" t="n">
-        <v>4.000321843164243</v>
+        <v>4.000321832277643</v>
       </c>
       <c r="F11" t="n">
-        <v>3.983534270778402</v>
+        <v>3.965909744251566</v>
       </c>
       <c r="G11" t="n">
         <v>3.635170988741786</v>
@@ -726,16 +726,16 @@
         <v>0.1296831554301131</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1302949952866726</v>
+        <v>0.1302949952866672</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1296831586480579</v>
+        <v>0.1296831554301131</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1303283342182834</v>
+        <v>0.1303283342211367</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1303381907778592</v>
+        <v>0.1303442425421155</v>
       </c>
       <c r="G12" t="n">
         <v>0.1279098983383962</v>
@@ -751,16 +751,16 @@
         <v>0.01209365746384075</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01206359839605504</v>
+        <v>0.01206359839605525</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01209368000782075</v>
+        <v>0.01209365746384056</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01213235040331601</v>
+        <v>0.01213235038588772</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0121571160781376</v>
+        <v>0.01219330481157147</v>
       </c>
       <c r="G13" t="n">
         <v>0.01125548058275688</v>
@@ -776,16 +776,16 @@
         <v>0.0270887839573416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02645443011041931</v>
+        <v>0.02645443011041568</v>
       </c>
       <c r="D14" t="n">
-        <v>0.027088789044638</v>
+        <v>0.02708878395734209</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02647814245268942</v>
+        <v>0.0264781424368814</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02649100078375433</v>
+        <v>0.02652076527972308</v>
       </c>
       <c r="G14" t="n">
         <v>0.02565738815656856</v>
@@ -801,16 +801,16 @@
         <v>0.06161634263844895</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06249846130646221</v>
+        <v>0.0624984613064571</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06161621606145073</v>
+        <v>0.06161634263844885</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06246092041065748</v>
+        <v>0.06246092039418816</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06249565503357393</v>
+        <v>0.06249296963632647</v>
       </c>
       <c r="G15" t="n">
         <v>0.06129475189506017</v>
@@ -826,16 +826,16 @@
         <v>6.572618130792454</v>
       </c>
       <c r="C16" t="n">
-        <v>6.597807665503593</v>
+        <v>4.531720444754872</v>
       </c>
       <c r="D16" t="n">
-        <v>6.572618130792395</v>
+        <v>6.572618130792399</v>
       </c>
       <c r="E16" t="n">
         <v>6.431679145834599</v>
       </c>
       <c r="F16" t="n">
-        <v>6.341624714154605</v>
+        <v>6.341559293435377</v>
       </c>
       <c r="G16" t="n">
         <v>4.531720444754872</v>
@@ -851,16 +851,16 @@
         <v>1.586991299484808e-07</v>
       </c>
       <c r="C17" t="n">
-        <v>4.998475443551698e-07</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.586991305035923e-07</v>
+        <v>1.586991310587038e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>1.651921517353827e-07</v>
+        <v>1.651921519574273e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>1.340902435753577e-07</v>
+        <v>9.84118177504989e-08</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0.8409233820181834</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990115591546238</v>
+        <v>0.697989774142612</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8409233820181785</v>
+        <v>0.8409233820181763</v>
       </c>
       <c r="E18" t="n">
         <v>0.9842006392694329</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9724585639823742</v>
+        <v>0.9717634759394058</v>
       </c>
       <c r="G18" t="n">
         <v>0.697989774142612</v>
@@ -901,16 +901,16 @@
         <v>0.0536454848781894</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05434313336657159</v>
+        <v>0.04532997412150266</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05364548487818912</v>
+        <v>0.05364548487818914</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05404771028437583</v>
+        <v>0.05404771028437581</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05375259086267931</v>
+        <v>0.05375111201197422</v>
       </c>
       <c r="G19" t="n">
         <v>0.04532997412150266</v>
@@ -926,16 +926,16 @@
         <v>0.007717259338719709</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008093771775585568</v>
+        <v>0.0008412194110390681</v>
       </c>
       <c r="D20" t="n">
-        <v>0.007717259338718502</v>
+        <v>0.007717259338717988</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00735024601236111</v>
+        <v>0.007350246012361195</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007336528694503935</v>
+        <v>0.0073395942444901</v>
       </c>
       <c r="G20" t="n">
         <v>0.0008412194110390681</v>
@@ -951,16 +951,16 @@
         <v>0.01791750709538695</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01760833074303436</v>
+        <v>0.006205061072008584</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01791750709538609</v>
+        <v>0.01791750709538542</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01640328663423776</v>
+        <v>0.01640328663423765</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01592217378266075</v>
+        <v>0.01592222793469651</v>
       </c>
       <c r="G21" t="n">
         <v>0.006205061072008584</v>
@@ -976,16 +976,16 @@
         <v>0.03990647184840234</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03944759904423931</v>
+        <v>0.02657339707862086</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03990647184840208</v>
+        <v>0.03990647184840194</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03835869169940629</v>
+        <v>0.0383586916994063</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03742308064852669</v>
+        <v>0.03742018383243864</v>
       </c>
       <c r="G22" t="n">
         <v>0.02657339707862086</v>
@@ -1001,16 +1001,16 @@
         <v>0.7600293014005253</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7833212671703964</v>
+        <v>0.783321267170046</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7600293014005183</v>
+        <v>0.7600293014005192</v>
       </c>
       <c r="E23" t="n">
-        <v>0.765912391077449</v>
+        <v>0.7659123910774512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7831541965576075</v>
+        <v>0.783154196557609</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>8.101407564242713e-08</v>
       </c>
       <c r="C24" t="n">
-        <v>5.066488873439745e-07</v>
+        <v>5.066488878435749e-07</v>
       </c>
       <c r="D24" t="n">
         <v>8.101407562854934e-08</v>
       </c>
       <c r="E24" t="n">
-        <v>4.189296332751669e-07</v>
+        <v>4.18929633330678e-07</v>
       </c>
       <c r="F24" t="n">
         <v>4.657713097988569e-07</v>
@@ -1051,16 +1051,16 @@
         <v>0.2460175591581026</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2950652261036371</v>
+        <v>0.2950652261035037</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2460175591580993</v>
+        <v>0.2460175591580978</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2503304548528086</v>
+        <v>0.2503304548528107</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2948851543036096</v>
+        <v>0.2948851543036106</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0.02129888324365937</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02132761911601605</v>
+        <v>0.0213276191160064</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02129888324365916</v>
+        <v>0.02129888324365917</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02104902636656656</v>
+        <v>0.02104902636656664</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0213287950740059</v>
+        <v>0.02132879507400594</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0.005430002989657109</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006353358469307235</v>
+        <v>0.006353358469304328</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005430002989656957</v>
+        <v>0.00543000298965695</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005647021812974549</v>
+        <v>0.005647021812974721</v>
       </c>
       <c r="F27" t="n">
         <v>0.006358678929019299</v>
@@ -1126,16 +1126,16 @@
         <v>0.01203993965723878</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01277498430118768</v>
+        <v>0.01277498430118168</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01203993965723874</v>
+        <v>0.01203993965723876</v>
       </c>
       <c r="E28" t="n">
         <v>0.01272163600226445</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01277272188294775</v>
+        <v>0.01277272188294776</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0.02082915097080489</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02056649150982419</v>
+        <v>0.02056649150981513</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02082915097080469</v>
+        <v>0.02082915097080473</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02058132814896189</v>
+        <v>0.02058132814896179</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02060076968075336</v>
+        <v>0.02060076968075313</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1176,16 +1176,16 @@
         <v>5.11740056276887</v>
       </c>
       <c r="C30" t="n">
-        <v>5.137293494088333</v>
+        <v>5.094930295221008</v>
       </c>
       <c r="D30" t="n">
-        <v>5.117400669450768</v>
+        <v>5.117400562768871</v>
       </c>
       <c r="E30" t="n">
-        <v>5.13526977305609</v>
+        <v>5.135269773652682</v>
       </c>
       <c r="F30" t="n">
-        <v>5.135640325195787</v>
+        <v>5.132700564983058</v>
       </c>
       <c r="G30" t="n">
         <v>5.067821569136368</v>
@@ -1201,16 +1201,16 @@
         <v>1.103253109979718e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>3.031315621182529e-06</v>
+        <v>1.4005379952442e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>9.555997054766507e-08</v>
+        <v>1.103253113310387e-07</v>
       </c>
       <c r="E31" t="n">
-        <v>2.161602103978311e-07</v>
+        <v>2.161379472065406e-07</v>
       </c>
       <c r="F31" t="n">
-        <v>3.755816197215101e-07</v>
+        <v>4.223774334732866e-07</v>
       </c>
       <c r="G31" t="n">
         <v>4.397863392346935e-07</v>
@@ -1226,16 +1226,16 @@
         <v>3.660698540722427</v>
       </c>
       <c r="C32" t="n">
-        <v>3.63980444600592</v>
+        <v>3.637369421040573</v>
       </c>
       <c r="D32" t="n">
-        <v>3.660698447803644</v>
+        <v>3.660698540722428</v>
       </c>
       <c r="E32" t="n">
-        <v>3.638608867298779</v>
+        <v>3.638608867542908</v>
       </c>
       <c r="F32" t="n">
-        <v>3.63813484074866</v>
+        <v>3.637240749666147</v>
       </c>
       <c r="G32" t="n">
         <v>3.635170988741786</v>
@@ -1251,16 +1251,16 @@
         <v>0.2149034432384083</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2159437488020776</v>
+        <v>0.2138872064721884</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2149034560841544</v>
+        <v>0.2149034432384083</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2157539576346929</v>
+        <v>0.2157539576157803</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2157880687452168</v>
+        <v>0.2155053579442051</v>
       </c>
       <c r="G33" t="n">
         <v>0.212816289191156</v>
@@ -1276,16 +1276,16 @@
         <v>0.02184215477244249</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02106075095364686</v>
+        <v>0.02087510785497756</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02184211851561811</v>
+        <v>0.02184215477244267</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02102128226810211</v>
+        <v>0.02102128223053934</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02105084012150911</v>
+        <v>0.02099206322498828</v>
       </c>
       <c r="G34" t="n">
         <v>0.02059638010034333</v>
@@ -1301,16 +1301,16 @@
         <v>0.05721526183207247</v>
       </c>
       <c r="C35" t="n">
-        <v>0.05757706446116819</v>
+        <v>0.05699178805131258</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05721525608651851</v>
+        <v>0.05721526183207261</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05760409662275952</v>
+        <v>0.0576040967322515</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05760253743956241</v>
+        <v>0.05759929345776053</v>
       </c>
       <c r="G35" t="n">
         <v>0.05667460433888315</v>
@@ -1326,16 +1326,16 @@
         <v>0.1156021678039307</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1169917451197438</v>
+        <v>0.1164730427698041</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1156022007750994</v>
+        <v>0.1156021678039305</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1169767882566341</v>
+        <v>0.1169767882598631</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1169573108528706</v>
+        <v>0.1170534636466329</v>
       </c>
       <c r="G36" t="n">
         <v>0.1159553721802738</v>
@@ -1351,16 +1351,16 @@
         <v>1.562359630036692</v>
       </c>
       <c r="C37" t="n">
-        <v>1.73510692980982</v>
+        <v>1.089660392333265</v>
       </c>
       <c r="D37" t="n">
-        <v>1.56235963003669</v>
+        <v>1.562359630036689</v>
       </c>
       <c r="E37" t="n">
         <v>1.693836053499167</v>
       </c>
       <c r="F37" t="n">
-        <v>1.717465588214458</v>
+        <v>1.716978932806355</v>
       </c>
       <c r="G37" t="n">
         <v>1.089660392333265</v>
@@ -1376,16 +1376,16 @@
         <v>1.834836642622406e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>4.070756014218357e-07</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.834836645397964e-07</v>
+        <v>1.834836647063298e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>4.728102881434992e-08</v>
+        <v>4.728102886986107e-08</v>
       </c>
       <c r="F38" t="n">
-        <v>3.002850124111944e-07</v>
+        <v>9.201751594023477e-07</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1401,16 +1401,16 @@
         <v>0.8068941576812381</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9276691556998031</v>
+        <v>0.697989774142612</v>
       </c>
       <c r="D39" t="n">
         <v>0.8068941576812358</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9475656010858473</v>
+        <v>0.9475656010858469</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9713596765933654</v>
+        <v>0.9717631827242252</v>
       </c>
       <c r="G39" t="n">
         <v>0.697989774142612</v>
@@ -1426,16 +1426,16 @@
         <v>0.05168407245739852</v>
       </c>
       <c r="C40" t="n">
-        <v>0.05815933877900069</v>
+        <v>0.04439666591446639</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05168407245739846</v>
+        <v>0.05168407245739844</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0577863635966857</v>
+        <v>0.05778636359668569</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05893655069358217</v>
+        <v>0.05891791766287281</v>
       </c>
       <c r="G40" t="n">
         <v>0.04439666591446639</v>
@@ -1451,16 +1451,16 @@
         <v>0.007534147519479626</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00860495953506181</v>
+        <v>0.0009649359612575598</v>
       </c>
       <c r="D41" t="n">
-        <v>0.007534147519479619</v>
+        <v>0.007534147519479712</v>
       </c>
       <c r="E41" t="n">
-        <v>0.007754637258080285</v>
+        <v>0.007754637258080323</v>
       </c>
       <c r="F41" t="n">
-        <v>0.008384212460358781</v>
+        <v>0.008384615218951688</v>
       </c>
       <c r="G41" t="n">
         <v>0.0009649359612575598</v>
@@ -1476,16 +1476,16 @@
         <v>0.01744997304542106</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01924925383520613</v>
+        <v>0.006357410275794811</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01744997304542106</v>
+        <v>0.01744997304542115</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01776008382535142</v>
+        <v>0.01776008382535145</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01847053885872169</v>
+        <v>0.01846221960504688</v>
       </c>
       <c r="G42" t="n">
         <v>0.006357410275794811</v>
@@ -1501,16 +1501,16 @@
         <v>0.03740824636058965</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04049848697453642</v>
+        <v>0.02381896567219727</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03740824636058983</v>
+        <v>0.03740824636059011</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03997668968022915</v>
+        <v>0.03997668968022908</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0392179089515277</v>
+        <v>0.03920171258559092</v>
       </c>
       <c r="G43" t="n">
         <v>0.02381896567219727</v>
@@ -1577,7 +1577,7 @@
         <v>-0.06232509608070846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01037321205049446</v>
+        <v>0.01609369637518254</v>
       </c>
       <c r="D2" t="n">
         <v>-0.06435197435792687</v>
@@ -1602,7 +1602,7 @@
         <v>-0.06232509608070846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01037321205049446</v>
+        <v>0.01609369637518254</v>
       </c>
       <c r="D3" t="n">
         <v>-0.06435197435792687</v>
@@ -1677,16 +1677,16 @@
         <v>-0.041022297715955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1309086459163631</v>
+        <v>0.130908645916392</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04188731164685333</v>
+        <v>-0.04188745537625969</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5006753159345076</v>
+        <v>0.5006753145837488</v>
       </c>
       <c r="F6" t="n">
-        <v>40.62226376509273</v>
+        <v>39.97540086858398</v>
       </c>
       <c r="G6" t="n">
         <v>0.8164140998685443</v>
@@ -1702,16 +1702,16 @@
         <v>0.01723746262192849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5271316314876513</v>
+        <v>0.5271316314879422</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01709066599936394</v>
+        <v>0.01709058304802077</v>
       </c>
       <c r="E7" t="n">
-        <v>12.00413251210891</v>
+        <v>2.856885661582093</v>
       </c>
       <c r="F7" t="n">
-        <v>259.4703368088616</v>
+        <v>258.4857982750068</v>
       </c>
       <c r="G7" t="n">
         <v>1.087607172569281</v>
@@ -1727,16 +1727,16 @@
         <v>0.05825976033788349</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3962229855712882</v>
+        <v>0.3962229855715502</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05897797764621727</v>
+        <v>0.05897803842428046</v>
       </c>
       <c r="E8" t="n">
-        <v>11.5034571961744</v>
+        <v>2.356210346998344</v>
       </c>
       <c r="F8" t="n">
-        <v>218.8480730437689</v>
+        <v>218.5103974064228</v>
       </c>
       <c r="G8" t="n">
         <v>0.2711930727007366</v>
@@ -1752,16 +1752,16 @@
         <v>337.9833889459394</v>
       </c>
       <c r="C9" t="n">
-        <v>75.16585268333878</v>
+        <v>75.165852683347</v>
       </c>
       <c r="D9" t="n">
-        <v>345.0888201104173</v>
+        <v>345.0908506665056</v>
       </c>
       <c r="E9" t="n">
-        <v>95.82914204396307</v>
+        <v>82.47478639706975</v>
       </c>
       <c r="F9" t="n">
-        <v>84.3441588488718</v>
+        <v>84.53477864727657</v>
       </c>
       <c r="G9" t="n">
         <v>24.93483672602954</v>
@@ -1777,16 +1777,16 @@
         <v>0.01371192859374259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07156779441134353</v>
+        <v>0.2223757015302377</v>
       </c>
       <c r="D10" t="n">
         <v>0.01361877071761025</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1661028813020908</v>
+        <v>0.1661028813020917</v>
       </c>
       <c r="F10" t="n">
-        <v>9.456245521264419</v>
+        <v>9.497663618231996</v>
       </c>
       <c r="G10" t="n">
         <v>0.7113633202835359</v>
@@ -1802,16 +1802,16 @@
         <v>0.01167977166383505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07378522811869903</v>
+        <v>0.2265234665180038</v>
       </c>
       <c r="D11" t="n">
         <v>0.01161208962815169</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1716998960580043</v>
+        <v>0.1716998960580032</v>
       </c>
       <c r="F11" t="n">
-        <v>9.338012521646505</v>
+        <v>9.506875418884235</v>
       </c>
       <c r="G11" t="n">
         <v>0.7117343742700506</v>
@@ -1827,16 +1827,16 @@
         <v>-0.002032156929907547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002217433707355498</v>
+        <v>0.004147764987766145</v>
       </c>
       <c r="D12" t="n">
         <v>-0.002006681089458558</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005597014755913454</v>
+        <v>0.005597014755911456</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1182329996179146</v>
+        <v>0.009211800652238367</v>
       </c>
       <c r="G12" t="n">
         <v>0.0003710539865147133</v>
@@ -1852,16 +1852,16 @@
         <v>-17.39894398963181</v>
       </c>
       <c r="C13" t="n">
-        <v>3.005254254670448</v>
+        <v>1.83105311406511</v>
       </c>
       <c r="D13" t="n">
         <v>-17.28096452677798</v>
       </c>
       <c r="E13" t="n">
-        <v>3.259765954676321</v>
+        <v>3.259765954675178</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.266147366410549</v>
+        <v>0.09689619613548592</v>
       </c>
       <c r="G13" t="n">
         <v>0.0521337734875126</v>
@@ -1880,7 +1880,7 @@
         <v>0.007821707963625357</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01238918454040782</v>
+        <v>0.0123891845404076</v>
       </c>
       <c r="E14" t="n">
         <v>0.01967887264351997</v>
@@ -1905,7 +1905,7 @@
         <v>0.007821707963625357</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01238918454040782</v>
+        <v>0.0123891845404076</v>
       </c>
       <c r="E15" t="n">
         <v>0.01967887264351997</v>
@@ -1977,16 +1977,16 @@
         <v>0.05062113481057251</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09234197597431848</v>
+        <v>0.08801995856721079</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04938161933577787</v>
+        <v>0.04938154623103458</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3069429230213014</v>
+        <v>0.3069429059857367</v>
       </c>
       <c r="F18" t="n">
-        <v>13.13334714663266</v>
+        <v>12.90270217022033</v>
       </c>
       <c r="G18" t="n">
         <v>0.6700195810296132</v>
@@ -2002,16 +2002,16 @@
         <v>0.07233648646020097</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2597026007091154</v>
+        <v>0.2597026007092578</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0698399572532218</v>
+        <v>0.06983990001983159</v>
       </c>
       <c r="E19" t="n">
-        <v>1.590729701714504</v>
+        <v>1.590148186714805</v>
       </c>
       <c r="F19" t="n">
-        <v>167.9994132910558</v>
+        <v>120.8623623403927</v>
       </c>
       <c r="G19" t="n">
         <v>0.8458510878664965</v>
@@ -2027,16 +2027,16 @@
         <v>0.02171535164962846</v>
       </c>
       <c r="C20" t="n">
-        <v>0.167360624734797</v>
+        <v>0.171682642142047</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02045833791744393</v>
+        <v>0.02045835378879701</v>
       </c>
       <c r="E20" t="n">
-        <v>1.283786778693203</v>
+        <v>1.283205280729068</v>
       </c>
       <c r="F20" t="n">
-        <v>154.8660661444232</v>
+        <v>107.9596601701723</v>
       </c>
       <c r="G20" t="n">
         <v>0.1758315068368833</v>
@@ -2052,16 +2052,16 @@
         <v>30.01991486215755</v>
       </c>
       <c r="C21" t="n">
-        <v>64.44318396420381</v>
+        <v>66.10740195638206</v>
       </c>
       <c r="D21" t="n">
-        <v>29.29317073214584</v>
+        <v>29.29321746306582</v>
       </c>
       <c r="E21" t="n">
-        <v>80.70426907283648</v>
+        <v>80.69721372195689</v>
       </c>
       <c r="F21" t="n">
-        <v>92.18250415917858</v>
+        <v>89.32446634306088</v>
       </c>
       <c r="G21" t="n">
         <v>20.78752505720432</v>
@@ -2077,16 +2077,16 @@
         <v>-0.007877736619699816</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02812059421678326</v>
+        <v>0.05957232743635044</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.007908929916541674</v>
+        <v>-0.007908929916541785</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0685288974789966</v>
+        <v>0.06852889747899638</v>
       </c>
       <c r="F22" t="n">
-        <v>7.422990300877331</v>
+        <v>7.410517689392536</v>
       </c>
       <c r="G22" t="n">
         <v>0.3778050436518088</v>
@@ -2102,16 +2102,16 @@
         <v>-0.007654159070882627</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02905205236523356</v>
+        <v>0.05942366086481998</v>
       </c>
       <c r="D23" t="n">
         <v>-0.007683602485702734</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06930524175044539</v>
+        <v>0.0693052417504465</v>
       </c>
       <c r="F23" t="n">
-        <v>7.217557644891334</v>
+        <v>7.085449693468723</v>
       </c>
       <c r="G23" t="n">
         <v>0.38713591936689</v>
@@ -2127,16 +2127,16 @@
         <v>0.0002235775488171887</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0009314581484503037</v>
+        <v>-0.0001486665715304536</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00022532743083894</v>
+        <v>0.0002253274308390511</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0007763442714487923</v>
+        <v>0.0007763442714501245</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2054326559859962</v>
+        <v>-0.3250679959238134</v>
       </c>
       <c r="G24" t="n">
         <v>0.009330875715081177</v>
@@ -2152,16 +2152,16 @@
         <v>2.920994282281192</v>
       </c>
       <c r="C25" t="n">
-        <v>3.206169866212188</v>
+        <v>-0.250180768681768</v>
       </c>
       <c r="D25" t="n">
-        <v>2.932575328541763</v>
+        <v>2.932575328543208</v>
       </c>
       <c r="E25" t="n">
-        <v>1.120181175103979</v>
+        <v>1.120181175105883</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.846290477934786</v>
+        <v>-4.587824485204615</v>
       </c>
       <c r="G25" t="n">
         <v>2.410232491560226</v>
